--- a/database_agogo.xlsx
+++ b/database_agogo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/510d91a57f455346/Desktop/Agogo/Rapid_Api_Test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{EE7CCBAE-EE1B-4A5F-A809-9A083BE8AD6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="14_{EE7CCBAE-EE1B-4A5F-A809-9A083BE8AD6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{758D8891-A778-4DF8-A947-13EF61716D56}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{A4F82A01-DD01-4768-8150-87112CD1BFF3}"/>
   </bookViews>
@@ -17,7 +17,6 @@
     <sheet name="recipee" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="111">
   <si>
     <t>name</t>
   </si>
@@ -134,9 +133,6 @@
   </si>
   <si>
     <t>Ingred</t>
-  </si>
-  <si>
-    <t>plain yogurt/2/tbsp;lemon juice/1/tbsp:olive oil/1/tsp;garlic cloves/4/small;ketchup/2/tsp;salt/1.5/tsp;chicken breast/1000/g</t>
   </si>
   <si>
     <t>Lunch</t>
@@ -147,9 +143,6 @@
 Marinate in the refrigerator for 4 hours.
 Preheat an outdoor grill for medium-high heat and lightly oil the grate.
 Cook on preheated grill until chicken is golden and no longer pink in the center.</t>
-  </si>
-  <si>
-    <t>parsley/0.25/cup;onion/1/small;ground beef/500/g;7 spice/2/tsp;cumin/0.5/tsp;coriander/0.5/tsp;salt/0.5/tsp;black pepper/0.25/tsp</t>
   </si>
   <si>
     <t>Place the parsley in the bowl of a food processor and pulse until finely chopped, remove and set aside.
@@ -161,9 +154,6 @@
   </si>
   <si>
     <t>Mujadara</t>
-  </si>
-  <si>
-    <t>olive oil/0.5/cup;onion/2/large;brown lentils/2/cups;salt/1/teaspoon;white rice/1/cup;cumin/2/teaspoons</t>
   </si>
   <si>
     <t>In a medium bowl, cover the rice with cold water. Set aside.
@@ -197,12 +187,6 @@
     <t>Shawarma Chicken</t>
   </si>
   <si>
-    <t>ground beef/500/g;white rice/1.5/cup;butter/3/tsp;seven spice/2/tsp;cinnamon/0.5/tsp;salt/1/tsp;black pepper/0.5/tsp;almond/0.25/cup;cashew/0.25/cup;pine nut/3/tsp;vegetable oil/2/tsp;chicken breast/400/g;bay leaves/2/small;onion/0.5/small;garlic clove/1/tsp</t>
-  </si>
-  <si>
-    <t>ground beef/500/g;vegetable oil/2/tbsp;white vinegar/2/tsp;shawarma spice/2/tsp;salt/1.5/tsp;black pepper/0.5/tsp;garlic clove/1/small;salt/0.5/tsp;tahini paste/2/tbsp;lemon juice/1/tbsp;cumin/1/tsp;cinnamon/0.5/tsp;coriander/0.25/tsp;turmeric/0.25/tsp;ginger/0.25/tsp</t>
-  </si>
-  <si>
     <t xml:space="preserve">Begin by slicing your beef into 3-inch thin slices. To make the marinade, combine the vegetable oil with the distilled white vinegar. Add the Shawarma spice, salt and black pepper. Mix them thoroughly with the meat and cover with plastic wrap and return to the fridge.
 After about 6-8 hours of marinating, the beef is ready to be cooked. Sautée the beef in a skillet on medium-high heat for 10-15 minutes, until most of the juices have evaporated. Taste for seasoning.
 Slice all your vegetables for your sandwich or platter (Tomatoes, small Lebanese pickles, pickled turnips)
@@ -210,9 +194,6 @@
 To make your sandwich, open up a pita and arrange the beef and all your fixings. Drizzle the Tahini sauce on top. </t>
   </si>
   <si>
-    <t>chicken breast/500/g;chicken thigh/500/g;olive oil/0.25/cup;lemon juice/3/tbsp;garlic clove/6/small;salt/2/tsp;paprika/1/tsp;cumin/0.75/tsp;red pepper/0.25/tsp;cinnamon/0.25/tsp</t>
-  </si>
-  <si>
     <t>Place the marinade ingredients in a large bowl: olive oil, lemon juice, garlic, salt, cardamom, paprika, cumin, crushed red pepper and cinnamon; and whisk to blend.
 Add the chicken into the large bowl with the marinade and stir with a spoon to evenly coat the chicken with the marinade. Cover the bowl and place in the refrigerator to marinate for at least an hour or up to 24 hours.
 Preheat the oven. Place the chicken on a rimmed baking sheet, lined with parchment paper. Roast the chicken until cooked through, about 15 minutes, turning halfway through.
@@ -229,15 +210,6 @@
     <t>shanklish</t>
   </si>
   <si>
-    <t>shanklish/30/g;</t>
-  </si>
-  <si>
-    <t>labneh/30/g;</t>
-  </si>
-  <si>
-    <t>halloumi cheese/30/g:</t>
-  </si>
-  <si>
     <t>halloumi cheese</t>
   </si>
   <si>
@@ -246,9 +218,6 @@
 Add 4 cups water, bring to a boil, then reduce to a simmer and cook covered until the rice is tender, about 18 minutes. Remove the pot from the heat. Allow the rice to rest in the pot for about 5 minutes, without opening the lid, to absorb all the liquid and steam.
 While the rice is cooking, season the fish with salt and pepper on both sides. Fry on a skillet with the remaining 2 tablespoons olive oil, working in two batches to avoid over-crowding the skillet.
 Serve the cooked fish broken up in chunks or whole on top of the rice mixture. Add toasted almond and parsley on top.</t>
-  </si>
-  <si>
-    <t>zucchini/2000/g;tomato/2/large;white rice/1.5/cups;ground beef/500/g;butter/4/tbsp;tomato paste/3/tbsp;bay leave/2/small;seven spice/1/tsp;cinnamon/1/tsp;white pepper/0.5/tsp;salt/1/tsp;</t>
   </si>
   <si>
     <t>Wash the zucchinis and core them.
@@ -276,12 +245,6 @@
     <t>Grilled Chicken with Broccoli Salad</t>
   </si>
   <si>
-    <t>chicken breast/250/g;olive oil/1/tsp;garlic clove/1/small;salt/1/tsp;black pepper/1/tsp;white quinoa/225/g;salt/0.5/tsp;broccoli/250/g;mayonnaise/2/tbs;lemon juice/1/medium;almond/10/g;parmesan/15/g</t>
-  </si>
-  <si>
-    <t>egg/2/medium;olive oil/1/tsp;salt/1/tsp;black pepper/1/tsp;</t>
-  </si>
-  <si>
     <t>Crack the eggs into a bowl and beat them until the yolks and whites are fully mixed.
 If you're using vegetables, chop them into small pieces.
 Place a non-stick skillet over medium heat and add the olive oil or avocado oil.
@@ -354,12 +317,6 @@
 Optional: Add additional veggies like tomatoes or cucumbers.</t>
   </si>
   <si>
-    <t>canned tuna/1 can/;mustard/1/tsp;lettuce/2/small;red onion/0.25/small;pita bread/50/g;salt/0.25/tsp;black pepper/0.25/tsp</t>
-  </si>
-  <si>
-    <t>canned tuna/100/g;mayonnaise/2/tbsp;mustard/1/tsp;red onion/0.25/small;salt/0.5/tsp;black pepper/0.25/tsp;lemon juice/1/tbsp</t>
-  </si>
-  <si>
     <t>Cut the pita bread in half to create two pockets.
 Place a lettuce leaf into each pita pocket.
 Slice the tomato into thin rounds.
@@ -368,9 +325,6 @@
 Season with a pinch of salt and black pepper.</t>
   </si>
   <si>
-    <t>turkey/40/g;pita bread/50/g;lettuce/2/small;tomato/1/small;mustard/1/tsp;salt/0.25/tsp;black pepper/0.25/tsp</t>
-  </si>
-  <si>
     <t>plain yogurt</t>
   </si>
   <si>
@@ -380,21 +334,6 @@
     <t>olive oil</t>
   </si>
   <si>
-    <t>chicken breast/500/g;chicken thigh/500/g;olive oil/1/tsp;lemon juice/3/tbsp;garlic clove/6/small;salt/2/tsp;paprika/1/tsp;cumin/0.75/tsp;red pepper/0.25/tsp;cinnamon/0.25/tsp</t>
-  </si>
-  <si>
-    <t>olive oil/2/tsp;chicken breast/400/g;salt/1/tsp;black pepper/0.5/tsp;garlic powder/0.5/tsp;paprika/0.5/tsp</t>
-  </si>
-  <si>
-    <t>olive oil/3/tsp;chicken leg/400/g;salt/1/tsp;black pepper/0.5/tsp;garlic powder/1/tsp;paprika/1/tsp;soy sauce/2/tbsp</t>
-  </si>
-  <si>
-    <t>chicken wing/1000/g;olive oil/2/tsp;salt/1/tsp;black pepper/0.5/tsp;garlic powder/1/tsp;paprika/1/tsp</t>
-  </si>
-  <si>
-    <t>egg/1/medium;olive oil/1/tsp;salt/0.25/tsp;black pepper/0.25/tsp</t>
-  </si>
-  <si>
     <t>garlic clove</t>
   </si>
   <si>
@@ -404,9 +343,6 @@
     <t>salt</t>
   </si>
   <si>
-    <t>olive oil/2/tsp;onion/3/small;white rice/2/cups;salt/1/tsp;black pepper/0.5/tsp;turmeric/1/tsp;coriander/0.5/tsp;cinnamon/0.5/tsp;ginger/0.25/tsp;cod fish fillets/700/g;almonds/0.5/cup;parsley/0.5/cup</t>
-  </si>
-  <si>
     <t>parsley</t>
   </si>
   <si>
@@ -431,9 +367,6 @@
     <t>brown lentil</t>
   </si>
   <si>
-    <t>olive oil/0.5/cup;onion/2/large;brown lentil/2/cups;salt/1/teaspoon;white rice/1/cup;cumin/2/teaspoons</t>
-  </si>
-  <si>
     <t>white rice</t>
   </si>
   <si>
@@ -537,6 +470,9 @@
   </si>
   <si>
     <t>turkey</t>
+  </si>
+  <si>
+    <t>recipeID</t>
   </si>
 </sst>
 </file>
@@ -595,11 +531,16 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2F11A73F-306E-4521-892D-19DCEDEDF238}" name="Tableau2" displayName="Tableau2" ref="A1:I1048231" totalsRowShown="0">
-  <autoFilter ref="A1:I1048231" xr:uid="{2F11A73F-306E-4521-892D-19DCEDEDF238}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{AC72B791-62B4-4B44-91FD-3E96EEDA2983}" name="name"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2F11A73F-306E-4521-892D-19DCEDEDF238}" name="Tableau2" displayName="Tableau2" ref="A1:J1048231" totalsRowShown="0">
+  <autoFilter ref="A1:J1048231" xr:uid="{2F11A73F-306E-4521-892D-19DCEDEDF238}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{AC72B791-62B4-4B44-91FD-3E96EEDA2983}" name="recipeID"/>
+    <tableColumn id="10" xr3:uid="{2A828B41-4898-4B52-B50F-185005D30412}" name="name"/>
     <tableColumn id="2" xr3:uid="{5BA63E61-7A9A-4EB8-B774-9A0163C98E6F}" name="description" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{67046FA4-ADE5-4303-9F2A-ECEDD3E213C9}" name="meal_type"/>
     <tableColumn id="4" xr3:uid="{D3316ED5-CD21-4A9D-AFE6-E735898FB761}" name="calories"/>
@@ -965,7 +906,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -985,7 +926,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <v>18</v>
@@ -1005,7 +946,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <v>32</v>
@@ -1025,7 +966,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B5">
         <v>0.1</v>
@@ -1045,7 +986,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B6">
         <v>0.04</v>
@@ -1065,7 +1006,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B7">
         <v>4.5</v>
@@ -1085,7 +1026,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1105,7 +1046,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="B9">
         <v>0.01</v>
@@ -1125,7 +1066,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1165,7 +1106,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="B12">
         <v>0.5</v>
@@ -1185,7 +1126,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="B13">
         <v>0.1</v>
@@ -1205,7 +1146,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="B14">
         <v>10</v>
@@ -1225,7 +1166,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1245,7 +1186,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1265,7 +1206,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="B17">
         <v>0.1</v>
@@ -1282,7 +1223,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1302,7 +1243,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -1322,7 +1263,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="B20">
         <v>0.5</v>
@@ -1342,7 +1283,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -1362,7 +1303,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="B22">
         <v>50</v>
@@ -1382,7 +1323,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="B23">
         <v>46.3</v>
@@ -1402,7 +1343,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="B24">
         <v>68.7</v>
@@ -1422,7 +1363,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="B25">
         <v>4.7</v>
@@ -1442,7 +1383,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="B26">
         <v>0.9</v>
@@ -1462,7 +1403,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="B27">
         <v>0.1</v>
@@ -1482,7 +1423,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="B28">
         <v>0.2</v>
@@ -1502,7 +1443,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="B29">
         <v>1.2</v>
@@ -1522,7 +1463,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1542,7 +1483,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1562,7 +1503,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="B32">
         <v>59</v>
@@ -1582,7 +1523,7 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1602,7 +1543,7 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1622,7 +1563,7 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1642,7 +1583,7 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1662,7 +1603,7 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1682,7 +1623,7 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="B38">
         <v>0.7</v>
@@ -1702,7 +1643,7 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="B39">
         <v>0.3</v>
@@ -1722,7 +1663,7 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="B40">
         <v>0.2</v>
@@ -1742,7 +1683,7 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="B41">
         <v>0.1</v>
@@ -1762,7 +1703,7 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1782,7 +1723,7 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1802,7 +1743,7 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="B44">
         <v>6.1</v>
@@ -1822,7 +1763,7 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B45">
         <v>0.4</v>
@@ -1842,7 +1783,7 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="B46">
         <v>10.3</v>
@@ -1862,7 +1803,7 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="B47">
         <v>1.5</v>
@@ -1882,7 +1823,7 @@
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="B48">
         <v>4.2</v>
@@ -1902,7 +1843,7 @@
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1922,7 +1863,7 @@
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="B50">
         <v>0.09</v>
@@ -1942,7 +1883,7 @@
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="B51">
         <v>9</v>
@@ -1962,7 +1903,7 @@
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="B52">
         <v>8.1</v>
@@ -1982,7 +1923,7 @@
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2002,7 +1943,7 @@
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="B54">
         <v>8.1</v>
@@ -2028,1194 +1969,1198 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3F09A6-C8A0-466D-A277-6B8383060A0B}">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="30.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="109.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.90625" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="109.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
       <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>34</v>
       </c>
       <c r="C2" t="s">
         <v>33</v>
       </c>
-      <c r="D2">
-        <v>200</v>
+      <c r="D2" t="s">
+        <v>32</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="F2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G2">
+        <v>25</v>
+      </c>
+      <c r="H2">
         <v>6</v>
       </c>
-      <c r="H2">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="I2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="E3">
+        <v>200</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>25</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>200</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4">
+        <v>25</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5">
+        <v>200</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>25</v>
+      </c>
+      <c r="H5">
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6">
+        <v>200</v>
+      </c>
+      <c r="F6">
+        <v>10</v>
+      </c>
+      <c r="G6">
+        <v>25</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7">
+        <v>200</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <v>25</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8">
+        <v>200</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>25</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9">
+        <v>200</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+      <c r="G9">
+        <v>25</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
         <v>36</v>
       </c>
-      <c r="C3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3">
-        <v>200</v>
-      </c>
-      <c r="E3">
-        <v>10</v>
-      </c>
-      <c r="F3">
-        <v>25</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10">
+        <v>200</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+      <c r="G10">
+        <v>25</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>37</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
         <v>39</v>
       </c>
-      <c r="C4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4">
-        <v>200</v>
-      </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4">
-        <v>25</v>
-      </c>
-      <c r="G4">
-        <v>8</v>
-      </c>
-      <c r="H4">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+      <c r="E11">
+        <v>200</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11">
+        <v>25</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>40</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5">
-        <v>200</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>25</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-      <c r="H5">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6">
-        <v>200</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
-      </c>
-      <c r="F6">
-        <v>25</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
-      </c>
-      <c r="H6">
-        <v>20</v>
-      </c>
-      <c r="I6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7">
-        <v>200</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>25</v>
-      </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
-      <c r="H7">
-        <v>20</v>
-      </c>
-      <c r="I7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8">
-        <v>200</v>
-      </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-      <c r="F8">
-        <v>25</v>
-      </c>
-      <c r="G8">
-        <v>6</v>
-      </c>
-      <c r="H8">
-        <v>20</v>
-      </c>
-      <c r="I8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9">
-        <v>200</v>
-      </c>
-      <c r="E9">
-        <v>10</v>
-      </c>
-      <c r="F9">
-        <v>25</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9">
-        <v>20</v>
-      </c>
-      <c r="I9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10">
-        <v>200</v>
-      </c>
-      <c r="E10">
-        <v>10</v>
-      </c>
-      <c r="F10">
-        <v>25</v>
-      </c>
-      <c r="G10">
-        <v>8</v>
-      </c>
-      <c r="H10">
-        <v>20</v>
-      </c>
-      <c r="I10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11">
-        <v>200</v>
-      </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-      <c r="F11">
-        <v>25</v>
-      </c>
-      <c r="G11">
-        <v>4</v>
-      </c>
-      <c r="H11">
-        <v>20</v>
-      </c>
-      <c r="I11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" t="s">
-        <v>47</v>
       </c>
       <c r="C12" t="s">
         <v>42</v>
       </c>
-      <c r="D12">
-        <v>200</v>
+      <c r="D12" t="s">
+        <v>39</v>
       </c>
       <c r="E12">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="F12">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G12">
+        <v>25</v>
+      </c>
+      <c r="H12">
         <v>4</v>
       </c>
-      <c r="H12">
-        <v>20</v>
-      </c>
-      <c r="I12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="I12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13">
+        <v>200</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>6</v>
+      </c>
+      <c r="I13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14">
+        <v>200</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>6</v>
+      </c>
+      <c r="I14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15">
+        <v>200</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
         <v>44</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E16">
+        <v>200</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17">
+        <v>200</v>
+      </c>
+      <c r="F17">
+        <v>10</v>
+      </c>
+      <c r="G17">
+        <v>25</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18">
+        <v>200</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>25</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19">
+        <v>200</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>25</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20">
+        <v>200</v>
+      </c>
+      <c r="F20">
+        <v>10</v>
+      </c>
+      <c r="G20">
+        <v>25</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21">
+        <v>200</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>25</v>
+      </c>
+      <c r="H21">
+        <v>7</v>
+      </c>
+      <c r="I21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22">
+        <v>200</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>25</v>
+      </c>
+      <c r="H22">
+        <v>7</v>
+      </c>
+      <c r="I22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
         <v>49</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23">
+        <v>200</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="G23">
+        <v>25</v>
+      </c>
+      <c r="H23">
+        <v>6</v>
+      </c>
+      <c r="I23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24">
+        <v>200</v>
+      </c>
+      <c r="F24">
+        <v>10</v>
+      </c>
+      <c r="G24">
+        <v>25</v>
+      </c>
+      <c r="H24">
+        <v>6</v>
+      </c>
+      <c r="I24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25">
+        <v>200</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="G25">
+        <v>25</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26">
+        <v>200</v>
+      </c>
+      <c r="F26">
+        <v>10</v>
+      </c>
+      <c r="G26">
+        <v>25</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27">
+        <v>200</v>
+      </c>
+      <c r="F27">
+        <v>10</v>
+      </c>
+      <c r="G27">
+        <v>25</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28">
+        <v>200</v>
+      </c>
+      <c r="F28">
+        <v>10</v>
+      </c>
+      <c r="G28">
+        <v>25</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29">
+        <v>200</v>
+      </c>
+      <c r="F29">
+        <v>10</v>
+      </c>
+      <c r="G29">
+        <v>25</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30">
+        <v>200</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+      <c r="G30">
+        <v>25</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31">
+        <v>200</v>
+      </c>
+      <c r="F31">
+        <v>10</v>
+      </c>
+      <c r="G31">
+        <v>25</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32">
+        <v>200</v>
+      </c>
+      <c r="F32">
+        <v>10</v>
+      </c>
+      <c r="G32">
+        <v>25</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33">
+        <v>200</v>
+      </c>
+      <c r="F33">
+        <v>10</v>
+      </c>
+      <c r="G33">
+        <v>25</v>
+      </c>
+      <c r="H33">
+        <v>4</v>
+      </c>
+      <c r="I33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="D13">
-        <v>200</v>
-      </c>
-      <c r="E13">
-        <v>10</v>
-      </c>
-      <c r="F13">
-        <v>25</v>
-      </c>
-      <c r="G13">
-        <v>6</v>
-      </c>
-      <c r="H13">
-        <v>20</v>
-      </c>
-      <c r="I13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+      <c r="B34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34">
+        <v>200</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+      <c r="G34">
+        <v>25</v>
+      </c>
+      <c r="H34">
+        <v>4</v>
+      </c>
+      <c r="I34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35">
+        <v>200</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
+      </c>
+      <c r="G35">
+        <v>25</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" t="s">
         <v>44</v>
       </c>
-      <c r="B14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14">
-        <v>200</v>
-      </c>
-      <c r="E14">
-        <v>10</v>
-      </c>
-      <c r="F14">
-        <v>25</v>
-      </c>
-      <c r="G14">
-        <v>6</v>
-      </c>
-      <c r="H14">
-        <v>20</v>
-      </c>
-      <c r="I14" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15">
-        <v>200</v>
-      </c>
-      <c r="E15">
-        <v>10</v>
-      </c>
-      <c r="F15">
-        <v>25</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>20</v>
-      </c>
-      <c r="I15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16">
-        <v>200</v>
-      </c>
-      <c r="E16">
-        <v>10</v>
-      </c>
-      <c r="F16">
-        <v>25</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>20</v>
-      </c>
-      <c r="I16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17">
-        <v>200</v>
-      </c>
-      <c r="E17">
-        <v>10</v>
-      </c>
-      <c r="F17">
-        <v>25</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>20</v>
-      </c>
-      <c r="I17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18">
-        <v>200</v>
-      </c>
-      <c r="E18">
-        <v>10</v>
-      </c>
-      <c r="F18">
-        <v>25</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>20</v>
-      </c>
-      <c r="I18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19">
-        <v>200</v>
-      </c>
-      <c r="E19">
-        <v>10</v>
-      </c>
-      <c r="F19">
-        <v>25</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>20</v>
-      </c>
-      <c r="I19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20">
-        <v>200</v>
-      </c>
-      <c r="E20">
-        <v>10</v>
-      </c>
-      <c r="F20">
-        <v>25</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>20</v>
-      </c>
-      <c r="I20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="E36">
+        <v>200</v>
+      </c>
+      <c r="F36">
+        <v>10</v>
+      </c>
+      <c r="G36">
+        <v>25</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" t="s">
         <v>57</v>
       </c>
-      <c r="C21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21">
-        <v>200</v>
-      </c>
-      <c r="E21">
-        <v>10</v>
-      </c>
-      <c r="F21">
-        <v>25</v>
-      </c>
-      <c r="G21">
-        <v>7</v>
-      </c>
-      <c r="H21">
-        <v>20</v>
-      </c>
-      <c r="I21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="D37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37">
+        <v>200</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+      <c r="G37">
+        <v>25</v>
+      </c>
+      <c r="H37">
+        <v>2</v>
+      </c>
+      <c r="I37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" t="s">
         <v>57</v>
       </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22">
-        <v>200</v>
-      </c>
-      <c r="E22">
-        <v>10</v>
-      </c>
-      <c r="F22">
-        <v>25</v>
-      </c>
-      <c r="G22">
-        <v>7</v>
-      </c>
-      <c r="H22">
-        <v>20</v>
-      </c>
-      <c r="I22" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="D38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38">
+        <v>200</v>
+      </c>
+      <c r="F38">
+        <v>10</v>
+      </c>
+      <c r="G38">
+        <v>25</v>
+      </c>
+      <c r="H38">
+        <v>2</v>
+      </c>
+      <c r="I38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" t="s">
         <v>59</v>
       </c>
-      <c r="C23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23">
-        <v>200</v>
-      </c>
-      <c r="E23">
-        <v>10</v>
-      </c>
-      <c r="F23">
-        <v>25</v>
-      </c>
-      <c r="G23">
-        <v>6</v>
-      </c>
-      <c r="H23">
-        <v>20</v>
-      </c>
-      <c r="I23" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="D39" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39">
+        <v>200</v>
+      </c>
+      <c r="F39">
+        <v>10</v>
+      </c>
+      <c r="G39">
+        <v>25</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" t="s">
         <v>59</v>
       </c>
-      <c r="C24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24">
-        <v>200</v>
-      </c>
-      <c r="E24">
-        <v>10</v>
-      </c>
-      <c r="F24">
-        <v>25</v>
-      </c>
-      <c r="G24">
-        <v>6</v>
-      </c>
-      <c r="H24">
-        <v>20</v>
-      </c>
-      <c r="I24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="D40" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40">
+        <v>200</v>
+      </c>
+      <c r="F40">
+        <v>10</v>
+      </c>
+      <c r="G40">
+        <v>25</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" t="s">
         <v>60</v>
       </c>
-      <c r="C25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25">
-        <v>200</v>
-      </c>
-      <c r="E25">
-        <v>10</v>
-      </c>
-      <c r="F25">
-        <v>25</v>
-      </c>
-      <c r="G25">
-        <v>2</v>
-      </c>
-      <c r="H25">
-        <v>20</v>
-      </c>
-      <c r="I25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" t="s">
-        <v>60</v>
-      </c>
-      <c r="C26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26">
-        <v>200</v>
-      </c>
-      <c r="E26">
-        <v>10</v>
-      </c>
-      <c r="F26">
-        <v>25</v>
-      </c>
-      <c r="G26">
-        <v>2</v>
-      </c>
-      <c r="H26">
-        <v>20</v>
-      </c>
-      <c r="I26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27">
-        <v>200</v>
-      </c>
-      <c r="E27">
-        <v>10</v>
-      </c>
-      <c r="F27">
-        <v>25</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>20</v>
-      </c>
-      <c r="I27" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" t="s">
-        <v>50</v>
-      </c>
-      <c r="D28">
-        <v>200</v>
-      </c>
-      <c r="E28">
-        <v>10</v>
-      </c>
-      <c r="F28">
-        <v>25</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>20</v>
-      </c>
-      <c r="I28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29">
-        <v>200</v>
-      </c>
-      <c r="E29">
-        <v>10</v>
-      </c>
-      <c r="F29">
-        <v>25</v>
-      </c>
-      <c r="G29">
-        <v>2</v>
-      </c>
-      <c r="H29">
-        <v>20</v>
-      </c>
-      <c r="I29" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30">
-        <v>200</v>
-      </c>
-      <c r="E30">
-        <v>10</v>
-      </c>
-      <c r="F30">
-        <v>25</v>
-      </c>
-      <c r="G30">
-        <v>2</v>
-      </c>
-      <c r="H30">
-        <v>20</v>
-      </c>
-      <c r="I30" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31">
-        <v>200</v>
-      </c>
-      <c r="E31">
-        <v>10</v>
-      </c>
-      <c r="F31">
-        <v>25</v>
-      </c>
-      <c r="G31">
-        <v>2</v>
-      </c>
-      <c r="H31">
-        <v>20</v>
-      </c>
-      <c r="I31" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" t="s">
-        <v>66</v>
-      </c>
-      <c r="C32" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32">
-        <v>200</v>
-      </c>
-      <c r="E32">
-        <v>10</v>
-      </c>
-      <c r="F32">
-        <v>25</v>
-      </c>
-      <c r="G32">
-        <v>2</v>
-      </c>
-      <c r="H32">
-        <v>20</v>
-      </c>
-      <c r="I32" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" t="s">
-        <v>42</v>
-      </c>
-      <c r="D33">
-        <v>200</v>
-      </c>
-      <c r="E33">
-        <v>10</v>
-      </c>
-      <c r="F33">
-        <v>25</v>
-      </c>
-      <c r="G33">
-        <v>4</v>
-      </c>
-      <c r="H33">
-        <v>20</v>
-      </c>
-      <c r="I33" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>27</v>
-      </c>
-      <c r="B34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" t="s">
-        <v>33</v>
-      </c>
-      <c r="D34">
-        <v>200</v>
-      </c>
-      <c r="E34">
-        <v>10</v>
-      </c>
-      <c r="F34">
-        <v>25</v>
-      </c>
-      <c r="G34">
-        <v>4</v>
-      </c>
-      <c r="H34">
-        <v>20</v>
-      </c>
-      <c r="I34" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>28</v>
-      </c>
-      <c r="B35" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" t="s">
-        <v>33</v>
-      </c>
-      <c r="D35">
-        <v>200</v>
-      </c>
-      <c r="E35">
-        <v>10</v>
-      </c>
-      <c r="F35">
-        <v>25</v>
-      </c>
-      <c r="G35">
-        <v>1</v>
-      </c>
-      <c r="H35">
-        <v>20</v>
-      </c>
-      <c r="I35" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" t="s">
-        <v>70</v>
-      </c>
-      <c r="C36" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36">
-        <v>200</v>
-      </c>
-      <c r="E36">
-        <v>10</v>
-      </c>
-      <c r="F36">
-        <v>25</v>
-      </c>
-      <c r="G36">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>20</v>
-      </c>
-      <c r="I36" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37" t="s">
-        <v>42</v>
-      </c>
-      <c r="D37">
-        <v>200</v>
-      </c>
-      <c r="E37">
-        <v>10</v>
-      </c>
-      <c r="F37">
-        <v>25</v>
-      </c>
-      <c r="G37">
-        <v>2</v>
-      </c>
-      <c r="H37">
-        <v>20</v>
-      </c>
-      <c r="I37" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38">
-        <v>200</v>
-      </c>
-      <c r="E38">
-        <v>10</v>
-      </c>
-      <c r="F38">
-        <v>25</v>
-      </c>
-      <c r="G38">
-        <v>2</v>
-      </c>
-      <c r="H38">
-        <v>20</v>
-      </c>
-      <c r="I38" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39">
-        <v>200</v>
-      </c>
-      <c r="E39">
-        <v>10</v>
-      </c>
-      <c r="F39">
-        <v>25</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>20</v>
-      </c>
-      <c r="I39" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>30</v>
-      </c>
-      <c r="B40" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" t="s">
-        <v>33</v>
-      </c>
-      <c r="D40">
-        <v>200</v>
-      </c>
-      <c r="E40">
-        <v>10</v>
-      </c>
-      <c r="F40">
-        <v>25</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>20</v>
-      </c>
-      <c r="I40" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41">
-        <v>200</v>
+      <c r="D41" t="s">
+        <v>44</v>
       </c>
       <c r="E41">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="F41">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="H41">
-        <v>20</v>
-      </c>
-      <c r="I41" t="s">
-        <v>75</v>
+        <v>1</v>
+      </c>
+      <c r="I41">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
